--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,16 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Icam5</t>
   </si>
   <si>
     <t>Itgb2</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.853832149675356</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H2">
-        <v>0.853832149675356</v>
+        <v>2.871205</v>
       </c>
       <c r="I2">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J2">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>88.2823593152297</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="N2">
-        <v>88.2823593152297</v>
+        <v>0.431756</v>
       </c>
       <c r="O2">
-        <v>0.410604801657064</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="P2">
-        <v>0.410604801657064</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="Q2">
-        <v>75.37831663253476</v>
+        <v>0.1377399984422222</v>
       </c>
       <c r="R2">
-        <v>75.37831663253476</v>
+        <v>1.23965998598</v>
       </c>
       <c r="S2">
-        <v>0.1422299228278844</v>
+        <v>0.0001808770657533112</v>
       </c>
       <c r="T2">
-        <v>0.1422299228278844</v>
+        <v>0.0001810314180819529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.853832149675356</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H3">
-        <v>0.853832149675356</v>
+        <v>2.871205</v>
       </c>
       <c r="I3">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J3">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>126.723307834671</v>
+        <v>0.1134506666666667</v>
       </c>
       <c r="N3">
-        <v>126.723307834671</v>
+        <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.589395198342936</v>
+        <v>0.0004748565837253468</v>
       </c>
       <c r="P3">
-        <v>0.589395198342936</v>
+        <v>0.0004752618049133599</v>
       </c>
       <c r="Q3">
-        <v>108.200434342449</v>
+        <v>0.1085800404622222</v>
       </c>
       <c r="R3">
-        <v>108.200434342449</v>
+        <v>0.97722036416</v>
       </c>
       <c r="S3">
-        <v>0.204161357190985</v>
+        <v>0.0001425848652555401</v>
       </c>
       <c r="T3">
-        <v>0.204161357190985</v>
+        <v>0.0001427065407476187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2460044150402</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H4">
-        <v>1.2460044150402</v>
+        <v>2.871205</v>
       </c>
       <c r="I4">
-        <v>0.5054916992749012</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J4">
-        <v>0.5054916992749012</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.2823593152297</v>
+        <v>99.31538866666666</v>
       </c>
       <c r="N4">
-        <v>88.2823593152297</v>
+        <v>297.946166</v>
       </c>
       <c r="O4">
-        <v>0.410604801657064</v>
+        <v>0.4156922789371741</v>
       </c>
       <c r="P4">
-        <v>0.410604801657064</v>
+        <v>0.4160470119763526</v>
       </c>
       <c r="Q4">
-        <v>110.0002094769415</v>
+        <v>95.05161350555889</v>
       </c>
       <c r="R4">
-        <v>110.0002094769415</v>
+        <v>855.4645215500301</v>
       </c>
       <c r="S4">
-        <v>0.207557318920063</v>
+        <v>0.1248196394688874</v>
       </c>
       <c r="T4">
-        <v>0.207557318920063</v>
+        <v>0.12492615491866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2460044150402</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H5">
-        <v>1.2460044150402</v>
+        <v>2.871205</v>
       </c>
       <c r="I5">
-        <v>0.5054916992749012</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J5">
-        <v>0.5054916992749012</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>126.723307834671</v>
+        <v>138.7317683333333</v>
       </c>
       <c r="N5">
-        <v>126.723307834671</v>
+        <v>416.195305</v>
       </c>
       <c r="O5">
-        <v>0.589395198342936</v>
+        <v>0.5806725998226211</v>
       </c>
       <c r="P5">
-        <v>0.589395198342936</v>
+        <v>0.5811681196254651</v>
       </c>
       <c r="Q5">
-        <v>157.8978010504985</v>
+        <v>132.7757822991694</v>
       </c>
       <c r="R5">
-        <v>157.8978010504985</v>
+        <v>1194.982040692525</v>
       </c>
       <c r="S5">
-        <v>0.2979343803548382</v>
+        <v>0.1743581688469978</v>
       </c>
       <c r="T5">
-        <v>0.2979343803548382</v>
+        <v>0.1745069582430838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.36509889679157</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H6">
-        <v>0.36509889679157</v>
+        <v>2.871205</v>
       </c>
       <c r="I6">
-        <v>0.1481170207062293</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J6">
-        <v>0.1481170207062293</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>88.2823593152297</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N6">
-        <v>88.2823593152297</v>
+        <v>1.222236</v>
       </c>
       <c r="O6">
-        <v>0.410604801657064</v>
+        <v>0.002557881890510999</v>
       </c>
       <c r="P6">
-        <v>0.410604801657064</v>
+        <v>0.001706709781021076</v>
       </c>
       <c r="Q6">
-        <v>32.23179199214734</v>
+        <v>0.5848816857300001</v>
       </c>
       <c r="R6">
-        <v>32.23179199214734</v>
+        <v>3.509290114380001</v>
       </c>
       <c r="S6">
-        <v>0.06081755990911654</v>
+        <v>0.0007680534653996611</v>
       </c>
       <c r="T6">
-        <v>0.06081755990911654</v>
+        <v>0.0005124725917203556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.307927666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.923783</v>
+      </c>
+      <c r="I7">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="J7">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.431756</v>
+      </c>
+      <c r="O7">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P7">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q7">
+        <v>0.1882352058831111</v>
+      </c>
+      <c r="R7">
+        <v>1.694116852948</v>
+      </c>
+      <c r="S7">
+        <v>0.0002471862356372061</v>
+      </c>
+      <c r="T7">
+        <v>0.000247397173220254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.307927666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.923783</v>
+      </c>
+      <c r="I8">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="J8">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.340352</v>
+      </c>
+      <c r="O8">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P8">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q8">
+        <v>0.1483852657351111</v>
+      </c>
+      <c r="R8">
+        <v>1.335467391616</v>
+      </c>
+      <c r="S8">
+        <v>0.0001948561911625881</v>
+      </c>
+      <c r="T8">
+        <v>0.0001950224726462629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.307927666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.923783</v>
+      </c>
+      <c r="I9">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="J9">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N9">
+        <v>297.946166</v>
+      </c>
+      <c r="O9">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P9">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q9">
+        <v>129.8973445628864</v>
+      </c>
+      <c r="R9">
+        <v>1169.076101065978</v>
+      </c>
+      <c r="S9">
+        <v>0.1705782691985245</v>
+      </c>
+      <c r="T9">
+        <v>0.1707238329987599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.36509889679157</v>
-      </c>
-      <c r="H7">
-        <v>0.36509889679157</v>
-      </c>
-      <c r="I7">
-        <v>0.1481170207062293</v>
-      </c>
-      <c r="J7">
-        <v>0.1481170207062293</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>126.723307834671</v>
-      </c>
-      <c r="N7">
-        <v>126.723307834671</v>
-      </c>
-      <c r="O7">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="P7">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="Q7">
-        <v>46.2665398882169</v>
-      </c>
-      <c r="R7">
-        <v>46.2665398882169</v>
-      </c>
-      <c r="S7">
-        <v>0.0872994607971128</v>
-      </c>
-      <c r="T7">
-        <v>0.0872994607971128</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.307927666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.923783</v>
+      </c>
+      <c r="I10">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="J10">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N10">
+        <v>416.195305</v>
+      </c>
+      <c r="O10">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P10">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q10">
+        <v>181.4511180487572</v>
+      </c>
+      <c r="R10">
+        <v>1633.060062438815</v>
+      </c>
+      <c r="S10">
+        <v>0.2382775241868761</v>
+      </c>
+      <c r="T10">
+        <v>0.2384808594774397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.307927666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.923783</v>
+      </c>
+      <c r="I11">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="J11">
+        <v>0.4103474561390758</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.222236</v>
+      </c>
+      <c r="O11">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P11">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q11">
+        <v>0.799298139798</v>
+      </c>
+      <c r="R11">
+        <v>4.795788838788</v>
+      </c>
+      <c r="S11">
+        <v>0.001049620326875398</v>
+      </c>
+      <c r="T11">
+        <v>0.0007003440170096777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5236893333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.571068</v>
+      </c>
+      <c r="I12">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="J12">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.431756</v>
+      </c>
+      <c r="O12">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P12">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q12">
+        <v>0.07536867060088889</v>
+      </c>
+      <c r="R12">
+        <v>0.678318035408</v>
+      </c>
+      <c r="S12">
+        <v>9.89724418628844E-05</v>
+      </c>
+      <c r="T12">
+        <v>9.905690048017386E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5236893333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.571068</v>
+      </c>
+      <c r="I13">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="J13">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.340352</v>
+      </c>
+      <c r="O13">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P13">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q13">
+        <v>0.05941290399288889</v>
+      </c>
+      <c r="R13">
+        <v>0.534716135936</v>
+      </c>
+      <c r="S13">
+        <v>7.801968827976086E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.808626676231051E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5236893333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.571068</v>
+      </c>
+      <c r="I14">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="J14">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N14">
+        <v>297.946166</v>
+      </c>
+      <c r="O14">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P14">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q14">
+        <v>52.01040968058756</v>
+      </c>
+      <c r="R14">
+        <v>468.093687125288</v>
+      </c>
+      <c r="S14">
+        <v>0.06829889936145486</v>
+      </c>
+      <c r="T14">
+        <v>0.06835718256124144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5236893333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.571068</v>
+      </c>
+      <c r="I15">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="J15">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N15">
+        <v>416.195305</v>
+      </c>
+      <c r="O15">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P15">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q15">
+        <v>72.65234727063778</v>
+      </c>
+      <c r="R15">
+        <v>653.8711254357399</v>
+      </c>
+      <c r="S15">
+        <v>0.09540542720360097</v>
+      </c>
+      <c r="T15">
+        <v>0.0954868418914864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5236893333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.571068</v>
+      </c>
+      <c r="I16">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="J16">
+        <v>0.164301582738267</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.222236</v>
+      </c>
+      <c r="O16">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P16">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q16">
+        <v>0.320035978008</v>
+      </c>
+      <c r="R16">
+        <v>1.920215868048</v>
+      </c>
+      <c r="S16">
+        <v>0.0004202640430685076</v>
+      </c>
+      <c r="T16">
+        <v>0.0002804151182966439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.398681</v>
+      </c>
+      <c r="H17">
+        <v>1.196043</v>
+      </c>
+      <c r="I17">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J17">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.431756</v>
+      </c>
+      <c r="O17">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P17">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q17">
+        <v>0.05737763794533333</v>
+      </c>
+      <c r="R17">
+        <v>0.5163987415079999</v>
+      </c>
+      <c r="S17">
+        <v>7.534702271512745E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.541132046544681E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.398681</v>
+      </c>
+      <c r="H18">
+        <v>1.196043</v>
+      </c>
+      <c r="I18">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J18">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.340352</v>
+      </c>
+      <c r="O18">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P18">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q18">
+        <v>0.04523062523733333</v>
+      </c>
+      <c r="R18">
+        <v>0.407075627136</v>
+      </c>
+      <c r="S18">
+        <v>5.939583902745778E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.944652475716783E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.398681</v>
+      </c>
+      <c r="H19">
+        <v>1.196043</v>
+      </c>
+      <c r="I19">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J19">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N19">
+        <v>297.946166</v>
+      </c>
+      <c r="O19">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P19">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q19">
+        <v>39.59515846901533</v>
+      </c>
+      <c r="R19">
+        <v>356.356426221138</v>
+      </c>
+      <c r="S19">
+        <v>0.05199547090830732</v>
+      </c>
+      <c r="T19">
+        <v>0.05203984149769132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.398681</v>
+      </c>
+      <c r="H20">
+        <v>1.196043</v>
+      </c>
+      <c r="I20">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J20">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N20">
+        <v>416.195305</v>
+      </c>
+      <c r="O20">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P20">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q20">
+        <v>55.30972013090166</v>
+      </c>
+      <c r="R20">
+        <v>497.7874811781149</v>
+      </c>
+      <c r="S20">
+        <v>0.07263147958514624</v>
+      </c>
+      <c r="T20">
+        <v>0.07269346001345522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.398681</v>
+      </c>
+      <c r="H21">
+        <v>1.196043</v>
+      </c>
+      <c r="I21">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J21">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.222236</v>
+      </c>
+      <c r="O21">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P21">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q21">
+        <v>0.243641135358</v>
+      </c>
+      <c r="R21">
+        <v>1.461846812148</v>
+      </c>
+      <c r="S21">
+        <v>0.000319944055167432</v>
+      </c>
+      <c r="T21">
+        <v>0.0002134780539943993</v>
       </c>
     </row>
   </sheetData>
